--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NORTH_DAKOTA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NORTH_DAKOTA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C22">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C23">
@@ -796,7 +796,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C30">
@@ -1063,7 +1063,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C49">
@@ -1076,7 +1076,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C50">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C57">
@@ -1400,41 +1400,6 @@
       </c>
       <c r="D72">
         <v>1</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NORTH_DAKOTA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NORTH_DAKOTA_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -610,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -623,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -654,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -667,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -698,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -711,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -742,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -755,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -768,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -781,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -794,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -807,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -820,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -864,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -877,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -890,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -934,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -947,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -991,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1004,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Sabinas Hidalgo</t>
@@ -1017,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1048,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -1061,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -1074,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -1087,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1118,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1131,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>San Jerónimo Tecuanipan</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -1157,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1188,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Ures</t>
@@ -1201,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1232,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1263,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -1276,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1307,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>La Perla</t>
@@ -1320,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -1333,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -1346,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1377,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
